--- a/biology/Botanique/Pinus_kesiya/Pinus_kesiya.xlsx
+++ b/biology/Botanique/Pinus_kesiya/Pinus_kesiya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pinus insularis · Pin de Benguet, Pin à trois aiguilles
 Le Pin de Benguet, Pin à trois aiguilles ou Baguio pine (Pinus insularis), est une espèce de pin originaire du Sud-Est asiatique (Philippines, Thaïlande, Malaisie).
@@ -513,13 +525,15 @@
           <t>Origine et répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est l'un des pins les plus communs en Inde et Asie du Sud-Est. Il est présent des montagnes Khasi du Nord-Est de l'État indien du Meghalaya d'où il aurait été exporté vers la Thaïlande, la Birmanie, le Laos, l'extrême Sud-Est de la Chine, le Vietnam et les Philippines.
 Les plantations sont les plus denses en Inde et en Birmanie, mais ses populations sont éparses dans son aire naturelle de répartition. Aux Philippines, il est surtout présent dans la province de Benguet (région de Luçon), où il est devenu l'espèce dominante des forêts tropicales et locales de pins. 
 La ville de Baguio est surnommée « la ville des pins », en raison de la forte présence de cet arbre.
-Les Néerlandais et Anglais l'ont introduit au XIXe ou XXe siècle en Afrique du Sud. On le cultive aussi en Amérique du Sud[2].
-Pinus insularis est considéré comme synonyme ou comme désignant une espèce conspécifique de P. kesiya. Son nom commun francophone vient de celui de la province des Philippines nommée Benguet où il est encore cultivé et utilisé comme essence décorative[3],[4]. Son nom scientifique est Pinus insularis. Les pins philippins seraient originaire des zones d'altitude cernant la ville de Benguet (Baguio pour les anglophones) dans une province montagneuse des Philippines. On ignore encore si ces arbres sont autochtones ou s'ils ont dans le passé été importés d'Inde.
+Les Néerlandais et Anglais l'ont introduit au XIXe ou XXe siècle en Afrique du Sud. On le cultive aussi en Amérique du Sud.
+Pinus insularis est considéré comme synonyme ou comme désignant une espèce conspécifique de P. kesiya. Son nom commun francophone vient de celui de la province des Philippines nommée Benguet où il est encore cultivé et utilisé comme essence décorative,. Son nom scientifique est Pinus insularis. Les pins philippins seraient originaire des zones d'altitude cernant la ville de Benguet (Baguio pour les anglophones) dans une province montagneuse des Philippines. On ignore encore si ces arbres sont autochtones ou s'ils ont dans le passé été importés d'Inde.
 </t>
         </is>
       </c>
@@ -548,7 +562,9 @@
           <t>Noms locaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Localement, cet arbre est appelé :
 birman : ထင်းရှူး (tʰí̃ yú)
@@ -582,7 +598,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>C'est un pin qui peut atteindre et dépasser les 20 mètres de hauteur 30 à 35 m dans de bonnes conditions et quand on ne le coupe pas trop tôt.
 Son tronc est droit et tubulaire protégé par une écorce épaisse, brun foncé, irrégulièrement écaillée et profondément fissurée dans le sens de la longueur.
@@ -618,13 +636,12 @@
           <t>Usage médicinal aux Philippines</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Parties utilisées : aiguilles, écorce, résine.
-Propriétés et constituants
-les études phytochimiques attribuent ses vertus à un monoterpène, l'alpha-pinène auquel on attribue des vertus anti-acnéiques, anti-infectieuses pour les poumons, expectorantes, insecticides et tranquillisantes.
-on en extrait une huile essentielle qui contient du da-pinene (nitrosochloride, amine nitrobenzyl-) et B-pinène (acide nopinique).
-Il contient d'autres terpènes dont l'acide abiétique (diterpénoïdes Abietane) très commun dans la famille Pinaceae.</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parties utilisées : aiguilles, écorce, résine.
+</t>
         </is>
       </c>
     </row>
@@ -649,12 +666,20 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Usages</t>
+          <t>Usage médicinal aux Philippines</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>outre d'arbre décoratif, il sert de source de bois d'œuvre (caisses, planches, pâte à papier). On a produit avec son bois des électrodes temporaires en charbon de bois, et sa résine a servi de source d'essence ou « huile de térébenthine » aux Philippines (surtout durant la période coloniale), d'essence décorative, de source de médicament[5].</t>
+          <t>Propriétés et constituants</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>les études phytochimiques attribuent ses vertus à un monoterpène, l'alpha-pinène auquel on attribue des vertus anti-acnéiques, anti-infectieuses pour les poumons, expectorantes, insecticides et tranquillisantes.
+on en extrait une huile essentielle qui contient du da-pinene (nitrosochloride, amine nitrobenzyl-) et B-pinène (acide nopinique).
+Il contient d'autres terpènes dont l'acide abiétique (diterpénoïdes Abietane) très commun dans la famille Pinaceae.</t>
         </is>
       </c>
     </row>
@@ -679,14 +704,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Aspects écopaysagers</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce pin qui apprécie la pleine lumière, s'adapte aux sols pauvres et croît rapidement a été mis en culture dans le cadre de sylvicultures monospécifiques, équiennes et intensives, en Indonésie notamment (lors d'opération de reboisements par les colons néerlandais, au début du XXe siècle).
-Comme cela est fréquent sous les monocultures de résineux[6], on a ensuite montré qu'il induisait une forte chute de la biodiversité sous son couvert (seulement 132 espèces de plantes vasculaires trouvées dans une forêt indonésienne plantée de Pinus insularis de 68 725 ha), alors qu'en Indonésie, sous les forêts naturelles proches, cette biodiversité est parmi les plus élevées au monde[7],[8], et localement même la plus élevée jamais mesurée en forêt[9]
-</t>
+          <t>Usages</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>outre d'arbre décoratif, il sert de source de bois d'œuvre (caisses, planches, pâte à papier). On a produit avec son bois des électrodes temporaires en charbon de bois, et sa résine a servi de source d'essence ou « huile de térébenthine » aux Philippines (surtout durant la période coloniale), d'essence décorative, de source de médicament.</t>
         </is>
       </c>
     </row>
@@ -711,10 +736,46 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Aspects écopaysagers</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce pin qui apprécie la pleine lumière, s'adapte aux sols pauvres et croît rapidement a été mis en culture dans le cadre de sylvicultures monospécifiques, équiennes et intensives, en Indonésie notamment (lors d'opération de reboisements par les colons néerlandais, au début du XXe siècle).
+Comme cela est fréquent sous les monocultures de résineux, on a ensuite montré qu'il induisait une forte chute de la biodiversité sous son couvert (seulement 132 espèces de plantes vasculaires trouvées dans une forêt indonésienne plantée de Pinus insularis de 68 725 ha), alors qu'en Indonésie, sous les forêts naturelles proches, cette biodiversité est parmi les plus élevées au monde et localement même la plus élevée jamais mesurée en forêt
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Pinus_kesiya</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pinus_kesiya</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
